--- a/display_detection/Data_processing/centrifuge_VWR_MicroStar12.xlsx
+++ b/display_detection/Data_processing/centrifuge_VWR_MicroStar12.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wienbruch\camera_detection_system\display_detection\Data_processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259B7F97-BB5A-4F64-9E09-6D695AFC3E25}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312C848D-075E-46DF-8BB8-9E05B1F433B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10380" xr2:uid="{1D3621E4-2A5F-4B45-B713-B840F116B1CA}"/>
   </bookViews>
   <sheets>
-    <sheet name="19.03.2024" sheetId="6" r:id="rId1"/>
-    <sheet name="22.02.2024" sheetId="5" r:id="rId2"/>
-    <sheet name="12.02.2024" sheetId="4" r:id="rId3"/>
-    <sheet name="09.02.2024" sheetId="3" r:id="rId4"/>
-    <sheet name="07.02.2024" sheetId="2" r:id="rId5"/>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId6"/>
+    <sheet name="02.04.2024" sheetId="7" r:id="rId1"/>
+    <sheet name="19.03.2024" sheetId="6" r:id="rId2"/>
+    <sheet name="22.02.2024" sheetId="5" r:id="rId3"/>
+    <sheet name="12.02.2024" sheetId="4" r:id="rId4"/>
+    <sheet name="09.02.2024" sheetId="3" r:id="rId5"/>
+    <sheet name="07.02.2024" sheetId="2" r:id="rId6"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="11">
   <si>
     <t>Measuring value1 and time</t>
   </si>
@@ -129,6 +130,526 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Centrifugal force</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'02.04.2024'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'02.04.2024'!$B$2:$ZZ$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="701"/>
+                <c:pt idx="0" formatCode="h:mm:ss">
+                  <c:v>0.39572916666666669</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="h:mm:ss">
+                  <c:v>0.39635416666666662</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="h:mm:ss">
+                  <c:v>0.39685185185185184</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="h:mm:ss">
+                  <c:v>0.39739583333333334</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="h:mm:ss">
+                  <c:v>0.3979050925925926</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="h:mm:ss">
+                  <c:v>0.39837962962962964</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="h:mm:ss">
+                  <c:v>0.39900462962962963</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="h:mm:ss">
+                  <c:v>0.39953703703703702</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="h:mm:ss">
+                  <c:v>0.40003472222222225</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="h:mm:ss">
+                  <c:v>0.40060185185185188</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="h:mm:ss">
+                  <c:v>0.40112268518518518</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="h:mm:ss">
+                  <c:v>0.40162037037037041</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="h:mm:ss">
+                  <c:v>0.40207175925925925</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="h:mm:ss">
+                  <c:v>0.40251157407407406</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="h:mm:ss">
+                  <c:v>0.4029861111111111</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'02.04.2024'!$B$3:$ZZ$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="701"/>
+                <c:pt idx="0">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2B96-4DD3-885B-DDC9E651F069}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="40180255"/>
+        <c:axId val="35330367"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="40180255"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="h:mm:ss" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="35330367"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="35330367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>RPM/RCF x 1000</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="40180255"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -576,7 +1097,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -1126,7 +1647,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -1652,7 +2173,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -2172,7 +2693,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -2892,6 +3413,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5472,7 +6033,564 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF886CB1-4F7F-44AF-947C-2C7773694626}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5513,7 +6631,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5554,7 +6672,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5595,7 +6713,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5636,7 +6754,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5973,10 +7091,1221 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C59D7B7-F3EB-45B5-9916-C98C53AF60A0}">
+  <dimension ref="A1:AD18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AE1" sqref="AE1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="B2" s="1">
+        <v>0.39572916666666669</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.39635416666666662</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.39685185185185184</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.39739583333333334</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.3979050925925926</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0.39837962962962964</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0.39900462962962963</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0.39953703703703702</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0.40003472222222225</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0.40060185185185188</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0.40112268518518518</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0.40162037037037041</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>0.40207175925925925</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>0.40251157407407406</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>0.4029861111111111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F3">
+        <v>5.4</v>
+      </c>
+      <c r="H3">
+        <v>3.9</v>
+      </c>
+      <c r="J3">
+        <v>3.6</v>
+      </c>
+      <c r="L3">
+        <v>2.1</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+      <c r="P3">
+        <v>3.5</v>
+      </c>
+      <c r="R3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="T3">
+        <v>5</v>
+      </c>
+      <c r="V3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="X3">
+        <v>4.2</v>
+      </c>
+      <c r="Z3">
+        <v>3.3</v>
+      </c>
+      <c r="AB3">
+        <v>1.9</v>
+      </c>
+      <c r="AD3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>45384</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>45384</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>45384</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>45384</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2">
+        <v>45384</v>
+      </c>
+      <c r="K5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" s="2">
+        <v>45384</v>
+      </c>
+      <c r="M5" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" s="2">
+        <v>45384</v>
+      </c>
+      <c r="O5" t="s">
+        <v>1</v>
+      </c>
+      <c r="P5" s="2">
+        <v>45384</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>1</v>
+      </c>
+      <c r="R5" s="2">
+        <v>45384</v>
+      </c>
+      <c r="S5" t="s">
+        <v>1</v>
+      </c>
+      <c r="T5" s="2">
+        <v>45384</v>
+      </c>
+      <c r="U5" t="s">
+        <v>1</v>
+      </c>
+      <c r="V5" s="2">
+        <v>45384</v>
+      </c>
+      <c r="W5" t="s">
+        <v>1</v>
+      </c>
+      <c r="X5" s="2">
+        <v>45384</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>45384</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>45384</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>45384</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.39572916666666669</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.39635416666666662</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.39685185185185184</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.39739583333333334</v>
+      </c>
+      <c r="I6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.3979050925925926</v>
+      </c>
+      <c r="K6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.39837962962962964</v>
+      </c>
+      <c r="M6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.39900462962962963</v>
+      </c>
+      <c r="O6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0.39953703703703702</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0.40003472222222225</v>
+      </c>
+      <c r="S6" t="s">
+        <v>2</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0.40060185185185188</v>
+      </c>
+      <c r="U6" t="s">
+        <v>2</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0.40112268518518518</v>
+      </c>
+      <c r="W6" t="s">
+        <v>2</v>
+      </c>
+      <c r="X6" s="1">
+        <v>0.40162037037037041</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>0.40207175925925925</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>0.40251157407407406</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>0.4029861111111111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>3</v>
+      </c>
+      <c r="S7" t="s">
+        <v>3</v>
+      </c>
+      <c r="U7" t="s">
+        <v>3</v>
+      </c>
+      <c r="W7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <v>4</v>
+      </c>
+      <c r="M8">
+        <v>4</v>
+      </c>
+      <c r="O8">
+        <v>4</v>
+      </c>
+      <c r="Q8">
+        <v>4</v>
+      </c>
+      <c r="S8">
+        <v>4</v>
+      </c>
+      <c r="U8">
+        <v>4</v>
+      </c>
+      <c r="W8">
+        <v>4</v>
+      </c>
+      <c r="Y8">
+        <v>4</v>
+      </c>
+      <c r="AA8">
+        <v>4</v>
+      </c>
+      <c r="AC8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="AA9">
+        <v>1</v>
+      </c>
+      <c r="AC9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" t="s">
+        <v>4</v>
+      </c>
+      <c r="W10" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>5.4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>3.9</v>
+      </c>
+      <c r="H11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>3.6</v>
+      </c>
+      <c r="J11" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <v>2.1</v>
+      </c>
+      <c r="L11" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>5</v>
+      </c>
+      <c r="O11">
+        <v>3.5</v>
+      </c>
+      <c r="P11" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q11">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="R11" t="s">
+        <v>5</v>
+      </c>
+      <c r="S11">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s">
+        <v>5</v>
+      </c>
+      <c r="U11">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="V11" t="s">
+        <v>5</v>
+      </c>
+      <c r="W11">
+        <v>4.2</v>
+      </c>
+      <c r="X11" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y11">
+        <v>3.3</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA11">
+        <v>1.9</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC11">
+        <v>1.5</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M12">
+        <v>15</v>
+      </c>
+      <c r="N12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O12">
+        <v>22</v>
+      </c>
+      <c r="P12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q12">
+        <v>25</v>
+      </c>
+      <c r="R12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S12">
+        <v>30</v>
+      </c>
+      <c r="T12" t="s">
+        <v>6</v>
+      </c>
+      <c r="U12">
+        <v>29</v>
+      </c>
+      <c r="V12" t="s">
+        <v>6</v>
+      </c>
+      <c r="W12">
+        <v>21</v>
+      </c>
+      <c r="X12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y12">
+        <v>9</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA12">
+        <v>6</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC12">
+        <v>4</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" t="s">
+        <v>8</v>
+      </c>
+      <c r="M13" t="s">
+        <v>7</v>
+      </c>
+      <c r="N13" t="s">
+        <v>8</v>
+      </c>
+      <c r="O13" t="s">
+        <v>7</v>
+      </c>
+      <c r="P13" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>7</v>
+      </c>
+      <c r="R13" t="s">
+        <v>8</v>
+      </c>
+      <c r="S13" t="s">
+        <v>7</v>
+      </c>
+      <c r="T13" t="s">
+        <v>8</v>
+      </c>
+      <c r="U13" t="s">
+        <v>7</v>
+      </c>
+      <c r="V13" t="s">
+        <v>8</v>
+      </c>
+      <c r="W13" t="s">
+        <v>7</v>
+      </c>
+      <c r="X13" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>0.90969681739807096</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>0.92262643575668302</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>0.92049539999999996</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <v>0.91220880000000004</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <v>0.91378325000000005</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.90790360000000003</v>
+      </c>
+      <c r="M14">
+        <v>3</v>
+      </c>
+      <c r="N14">
+        <v>0.8966923</v>
+      </c>
+      <c r="O14">
+        <v>3</v>
+      </c>
+      <c r="P14">
+        <v>0.90949089999999999</v>
+      </c>
+      <c r="Q14">
+        <v>4</v>
+      </c>
+      <c r="R14">
+        <v>0.92154699563980103</v>
+      </c>
+      <c r="S14">
+        <v>5</v>
+      </c>
+      <c r="T14">
+        <v>0.91088309999999995</v>
+      </c>
+      <c r="U14">
+        <v>4</v>
+      </c>
+      <c r="V14">
+        <v>0.92007923000000003</v>
+      </c>
+      <c r="W14">
+        <v>4</v>
+      </c>
+      <c r="X14">
+        <v>0.9414167</v>
+      </c>
+      <c r="Y14">
+        <v>3</v>
+      </c>
+      <c r="Z14">
+        <v>0.90871480000000004</v>
+      </c>
+      <c r="AA14">
+        <v>1</v>
+      </c>
+      <c r="AB14">
+        <v>0.6726974</v>
+      </c>
+      <c r="AC14">
+        <v>1</v>
+      </c>
+      <c r="AD14">
+        <v>0.73623084999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15">
+        <v>0.61043996</v>
+      </c>
+      <c r="G15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15">
+        <v>0.67152756000000002</v>
+      </c>
+      <c r="I15" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15">
+        <v>0.80081046</v>
+      </c>
+      <c r="K15" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15">
+        <v>0.64905440000000003</v>
+      </c>
+      <c r="M15" t="s">
+        <v>9</v>
+      </c>
+      <c r="N15">
+        <v>0.70098936999999995</v>
+      </c>
+      <c r="O15" t="s">
+        <v>9</v>
+      </c>
+      <c r="P15">
+        <v>0.64165103000000001</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>9</v>
+      </c>
+      <c r="R15" t="s">
+        <v>10</v>
+      </c>
+      <c r="S15" t="s">
+        <v>9</v>
+      </c>
+      <c r="T15">
+        <v>0.65058976000000002</v>
+      </c>
+      <c r="U15" t="s">
+        <v>9</v>
+      </c>
+      <c r="V15">
+        <v>0.65530383999999997</v>
+      </c>
+      <c r="W15" t="s">
+        <v>9</v>
+      </c>
+      <c r="X15">
+        <v>0.76327752999999998</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z15">
+        <v>0.65858483000000001</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB15">
+        <v>0.70358889999999996</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD15">
+        <v>0.59712719999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>0.72621184587478604</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0.74717479944229104</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>0.92049829999999999</v>
+      </c>
+      <c r="G16">
+        <v>9</v>
+      </c>
+      <c r="H16">
+        <v>0.88540870000000005</v>
+      </c>
+      <c r="I16">
+        <v>6</v>
+      </c>
+      <c r="J16">
+        <v>0.76352529999999996</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.73186499999999999</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0.85207414999999997</v>
+      </c>
+      <c r="O16">
+        <v>5</v>
+      </c>
+      <c r="P16">
+        <v>0.86057043</v>
+      </c>
+      <c r="Q16">
+        <v>4</v>
+      </c>
+      <c r="R16">
+        <v>0.91365516185760498</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0.78632915000000003</v>
+      </c>
+      <c r="U16">
+        <v>6</v>
+      </c>
+      <c r="V16">
+        <v>0.83343374999999997</v>
+      </c>
+      <c r="W16">
+        <v>2</v>
+      </c>
+      <c r="X16">
+        <v>0.91302510000000003</v>
+      </c>
+      <c r="Y16">
+        <v>3</v>
+      </c>
+      <c r="Z16">
+        <v>0.93672359999999999</v>
+      </c>
+      <c r="AA16">
+        <v>9</v>
+      </c>
+      <c r="AB16">
+        <v>0.90201443000000003</v>
+      </c>
+      <c r="AC16">
+        <v>5</v>
+      </c>
+      <c r="AD16">
+        <v>0.89956409999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>0.51358437538146895</v>
+      </c>
+      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>0.75786817073821999</v>
+      </c>
+      <c r="E17">
+        <v>8</v>
+      </c>
+      <c r="F17">
+        <v>0.85682709999999995</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>0.92869199999999996</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0.68263490000000004</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.56884129999999999</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>0.65686310000000003</v>
+      </c>
+      <c r="O17">
+        <v>2</v>
+      </c>
+      <c r="P17">
+        <v>0.89416910000000005</v>
+      </c>
+      <c r="Q17">
+        <v>2</v>
+      </c>
+      <c r="R17">
+        <v>0.90281146764755205</v>
+      </c>
+      <c r="S17">
+        <v>3</v>
+      </c>
+      <c r="T17">
+        <v>0.91862440000000001</v>
+      </c>
+      <c r="U17">
+        <v>2</v>
+      </c>
+      <c r="V17">
+        <v>0.91151409999999999</v>
+      </c>
+      <c r="W17">
+        <v>2</v>
+      </c>
+      <c r="X17">
+        <v>0.91629989999999994</v>
+      </c>
+      <c r="Y17">
+        <v>9</v>
+      </c>
+      <c r="Z17">
+        <v>0.8153956</v>
+      </c>
+      <c r="AA17">
+        <v>6</v>
+      </c>
+      <c r="AB17">
+        <v>0.66085000000000005</v>
+      </c>
+      <c r="AC17">
+        <v>4</v>
+      </c>
+      <c r="AD17">
+        <v>0.88424175999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="M18">
+        <v>5</v>
+      </c>
+      <c r="N18">
+        <v>0.77273106999999996</v>
+      </c>
+      <c r="O18">
+        <v>2</v>
+      </c>
+      <c r="P18">
+        <v>0.93615042999999998</v>
+      </c>
+      <c r="Q18">
+        <v>5</v>
+      </c>
+      <c r="R18">
+        <v>0.85649394989013605</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0.92319189999999995</v>
+      </c>
+      <c r="U18">
+        <v>9</v>
+      </c>
+      <c r="V18">
+        <v>0.86618010000000001</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <v>0.74599755000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B3CA412-E769-4498-BF5E-414265B35C14}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -6245,7 +8574,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8194E455-5FAE-43CC-8973-29130576C584}">
   <dimension ref="A1:AN18"/>
   <sheetViews>
@@ -7864,7 +10193,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7F82016-2027-46D4-B8E4-6A96D0912CDD}">
   <dimension ref="A1:AF20"/>
   <sheetViews>
@@ -9181,7 +11510,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4046E9F-DB32-4750-BD26-85FEF5D36B73}">
   <dimension ref="A1:AD18"/>
   <sheetViews>
@@ -10398,7 +12727,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{221F42F5-E1E6-4B8B-8767-C79106E2FF50}">
   <dimension ref="A1:AD18"/>
   <sheetViews>
@@ -11621,7 +13950,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C72D2C4B-F78B-4642-B4E1-527E469F2F1E}">
   <dimension ref="A1"/>
   <sheetViews>
